--- a/Crm/testData/Book1.xlsx
+++ b/Crm/testData/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="20115" windowHeight="3585" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="4410" yWindow="3780" windowWidth="16080" windowHeight="6540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Sheet3" sheetId="13" r:id="rId12"/>
     <sheet name="Sheet4" sheetId="14" r:id="rId13"/>
     <sheet name="Sheet5" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:T10"/>
+  <oleSize ref="A1:H20"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -796,7 +797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -995,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1091,6 +1092,18 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1496,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
